--- a/frame-web/src/main/resources/static/files/student-demo.xlsx
+++ b/frame-web/src/main/resources/static/files/student-demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>序号</t>
   </si>
@@ -37,10 +37,10 @@
     <t>班级</t>
   </si>
   <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>邮箱</t>
+    <t>性别（请严格输入男\女）</t>
+  </si>
+  <si>
+    <t>邮箱(没有，请填0)</t>
   </si>
   <si>
     <t>学生1</t>
@@ -58,31 +58,61 @@
     <t>流体1401</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
     <t>学生2</t>
   </si>
   <si>
     <t>11010119900307675X</t>
   </si>
   <si>
+    <t>15级</t>
+  </si>
+  <si>
     <t>能源与动力工程</t>
   </si>
   <si>
+    <t>流体1402</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>学生3</t>
   </si>
   <si>
     <t>110101199003076755</t>
   </si>
   <si>
+    <t>16级</t>
+  </si>
+  <si>
+    <t>流体1403</t>
+  </si>
+  <si>
     <t>学生4</t>
   </si>
   <si>
     <t>110101199003073896</t>
   </si>
   <si>
+    <t>17级</t>
+  </si>
+  <si>
+    <t>流体1404</t>
+  </si>
+  <si>
     <t>学生5</t>
   </si>
   <si>
     <t>110101199003075939</t>
+  </si>
+  <si>
+    <t>18级</t>
+  </si>
+  <si>
+    <t>流体1405</t>
   </si>
 </sst>
 </file>
@@ -90,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,6 +148,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,13 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -140,10 +200,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,33 +216,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,59 +271,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +493,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,182 +585,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1037,7 +1070,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1045,9 +1078,11 @@
     <col min="1" max="1" width="11.4553571428571" customWidth="1"/>
     <col min="2" max="2" width="16.0625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="31.4017857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.4017857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.4017857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.4017857142857" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.5982142857143" customWidth="1"/>
+    <col min="8" max="8" width="18.8928571428571" customWidth="1"/>
+    <col min="9" max="9" width="21.2678571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1060,13 +1095,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1079,7 +1114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1089,23 +1124,26 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1113,19 +1151,28 @@
         <v>3140209089</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1133,13 +1180,28 @@
         <v>3140209090</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1147,13 +1209,28 @@
         <v>3140209091</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1161,10 +1238,25 @@
         <v>3140209092</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
